--- a/biology/Histoire de la zoologie et de la botanique/Herman_Johannes_Lam/Herman_Johannes_Lam.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Herman_Johannes_Lam/Herman_Johannes_Lam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herman Johannes Lam est un botaniste néerlandais, né le 3 janvier 1892 à Veendam et mort le 15 février 1977 à Leyde.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Anske Lam et de Margien née Winter. Il obtient son doctorat à l’université d’Utrecht. Il se marie avec Moorrees le 22 avril 1922, union dont il aura deux filles. Il travaille au jardin botanique de Buitenzorg de 1919 à 1933, puis dirige le Muséum national de botanique (Rijskherbarium) de 1933 à 1962. Il enseigne également la botanique à l’université de Leyde de 1933 à 1962 et est recteur de l’université en 1958-1959. Il fait paraître des publications sur la taxinomie, la biogéographie et la phylogénie des végétaux supérieurs.
 </t>
